--- a/src/main/resources/instantor_credit_examples.xlsx
+++ b/src/main/resources/instantor_credit_examples.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfort_9vv\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Moneyman\instantordownloader\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{8600A407-B521-4173-B872-700A1653A137}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>credit_id</t>
   </si>
@@ -33,12 +33,162 @@
   </si>
   <si>
     <t>instantor_user_details_id</t>
+  </si>
+  <si>
+    <t>aa300ecf-b28b-4962-9742-65b10b69d8f4</t>
+  </si>
+  <si>
+    <t>65d75add-a3fc-4002-b6ba-3f1ee3e7fb70</t>
+  </si>
+  <si>
+    <t>b9eee101-24a1-460c-a4da-49f540848c3f</t>
+  </si>
+  <si>
+    <t>9a6fada3-1d89-42d4-b352-c24b9b753705</t>
+  </si>
+  <si>
+    <t>9ba867ab-68c1-487a-9e47-cacbbfd8646a</t>
+  </si>
+  <si>
+    <t>f86abc6f-e74b-45f6-9832-e364b82a0364</t>
+  </si>
+  <si>
+    <t>7961fee8-d986-49fb-9c13-e51c47cf8796</t>
+  </si>
+  <si>
+    <t>a845c9f3-23bd-43bd-b3dd-1d13fff69013</t>
+  </si>
+  <si>
+    <t>ef3117c1-6033-4490-9966-718dfcca133a</t>
+  </si>
+  <si>
+    <t>6c1f1266-ee72-4460-b10b-20e980c9f1c5</t>
+  </si>
+  <si>
+    <t>b19a4bb9-d216-4859-a54b-ebdb3c3c2429</t>
+  </si>
+  <si>
+    <t>769bf9a4-93a0-465e-ae45-6f1427ed4f7b</t>
+  </si>
+  <si>
+    <t>f828014e-a661-4eb7-96ef-8802a41ffe0d</t>
+  </si>
+  <si>
+    <t>0799667d-153d-4e3d-bfd7-116bf087c184</t>
+  </si>
+  <si>
+    <t>28dff2ba-d665-4940-a0b1-87793c25f56b</t>
+  </si>
+  <si>
+    <t>f537112c-63a1-4ab9-8559-b228553116d0</t>
+  </si>
+  <si>
+    <t>807141d8-7e41-4b8b-b99e-16653424a492</t>
+  </si>
+  <si>
+    <t>fc764157-55cd-4d9a-999d-bf0666b1c9e0</t>
+  </si>
+  <si>
+    <t>eeec4aa5-688b-4521-9f4b-0e207710e4ed</t>
+  </si>
+  <si>
+    <t>173b7dc6-8023-47a9-ae4f-c2504512da0f</t>
+  </si>
+  <si>
+    <t>39a39143-84d7-4f15-9031-5cd843015117</t>
+  </si>
+  <si>
+    <t>8e1ba87d-bc60-4a4b-a76c-2b78c6514515</t>
+  </si>
+  <si>
+    <t>25fd901d-361d-4633-ae3d-bb5ea4a9cf40</t>
+  </si>
+  <si>
+    <t>8636a3c6-ce83-4399-b8ee-200c36cbe36a</t>
+  </si>
+  <si>
+    <t>fd9c5391-7b1d-486f-bf09-63e9c11c1f65</t>
+  </si>
+  <si>
+    <t>51c4d474-2012-4560-bb2e-f705d1a12f8f</t>
+  </si>
+  <si>
+    <t>fca1ac39-77b4-4356-a94a-033c96f34696</t>
+  </si>
+  <si>
+    <t>527c20fd-6c52-4cca-914f-8cf4302893de</t>
+  </si>
+  <si>
+    <t>c1f0f6a9-3740-45f4-a629-0bc35d00acce</t>
+  </si>
+  <si>
+    <t>118c5465-f63b-4b3d-94ea-c92186a95a8e</t>
+  </si>
+  <si>
+    <t>d79e6704-b000-4780-8ff7-484c88d19d6c</t>
+  </si>
+  <si>
+    <t>a3d6e6b5-d843-4258-bd6f-af7bc08b2f9d</t>
+  </si>
+  <si>
+    <t>c26feeba-1039-4c8f-996b-d01dd0da25ea</t>
+  </si>
+  <si>
+    <t>e5d1089b-32ac-41ad-9e30-7ff3c856d12d</t>
+  </si>
+  <si>
+    <t>cafbdf8e-6e99-4238-b9e6-d333a7bda401</t>
+  </si>
+  <si>
+    <t>2ee07098-6320-4285-a6ff-6edf89ae07bb</t>
+  </si>
+  <si>
+    <t>7fcce369-30ff-4bb6-8e5e-b35e9c318873</t>
+  </si>
+  <si>
+    <t>5ab85d1e-ed8b-439a-9103-411d30e12c5d</t>
+  </si>
+  <si>
+    <t>c86177a4-b842-440c-bde3-6a64ca8de3bb</t>
+  </si>
+  <si>
+    <t>edaf41ee-c5db-4a8f-abcd-ce466f0bf5de</t>
+  </si>
+  <si>
+    <t>01bda04b-4bcc-45e3-8781-b1e31f515be2</t>
+  </si>
+  <si>
+    <t>e59f77c4-2e3d-4f06-8bf2-a584d2d8c9a7</t>
+  </si>
+  <si>
+    <t>26ed55b8-a36c-425a-8815-79b601a295e1</t>
+  </si>
+  <si>
+    <t>6662ce1e-1c52-49af-b3c1-0dd96a9ec7c6</t>
+  </si>
+  <si>
+    <t>2f53999b-3c6f-40c2-ac75-a1793595949a</t>
+  </si>
+  <si>
+    <t>455cfc77-3686-402e-bea7-c4c102c59a1e</t>
+  </si>
+  <si>
+    <t>48a6197e-649d-4f80-b9e2-a7e3696d7ad1</t>
+  </si>
+  <si>
+    <t>d241f166-a58b-4ee0-a53b-6badf525dff7</t>
+  </si>
+  <si>
+    <t>4e6304a4-6759-43e2-aa60-6e0c63f7c54d</t>
+  </si>
+  <si>
+    <t>89039b3e-d207-4944-8a57-9b194a93fadf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -87,9 +237,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -105,9 +256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -251,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,20 +551,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AC7EEC-9479-4613-8EC1-BE055DDA7188}">
-  <dimension ref="A1:C51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>66185</v>
       </c>
@@ -434,8 +586,14 @@
       <c r="C2" s="2">
         <v>60261</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>3721</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>67461</v>
       </c>
@@ -445,8 +603,14 @@
       <c r="C3" s="2">
         <v>55344</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>10305</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>66225</v>
       </c>
@@ -456,8 +620,14 @@
       <c r="C4" s="2">
         <v>60313</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>49844</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>81731</v>
       </c>
@@ -467,8 +637,14 @@
       <c r="C5" s="2">
         <v>78607</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>50896</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>58357</v>
       </c>
@@ -478,8 +654,14 @@
       <c r="C6" s="2">
         <v>49844</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>51403</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>77239</v>
       </c>
@@ -489,8 +671,14 @@
       <c r="C7" s="2">
         <v>72938</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>51449</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>82790</v>
       </c>
@@ -500,8 +688,14 @@
       <c r="C8" s="2">
         <v>79865</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>51630</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>74773</v>
       </c>
@@ -511,8 +705,14 @@
       <c r="C9" s="2">
         <v>70048</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>52111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>80338</v>
       </c>
@@ -522,8 +722,14 @@
       <c r="C10" s="2">
         <v>76980</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>55335</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>63786</v>
       </c>
@@ -533,8 +739,14 @@
       <c r="C11" s="2">
         <v>57410</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>55344</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>79907</v>
       </c>
@@ -544,8 +756,14 @@
       <c r="C12" s="2">
         <v>76535</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>57231</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>67542</v>
       </c>
@@ -555,8 +773,14 @@
       <c r="C13" s="2">
         <v>61858</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>57410</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>81636</v>
       </c>
@@ -566,8 +790,14 @@
       <c r="C14" s="2">
         <v>78499</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>57468</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>73704</v>
       </c>
@@ -577,8 +807,14 @@
       <c r="C15" s="2">
         <v>68795</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>57486</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>63842</v>
       </c>
@@ -588,8 +824,14 @@
       <c r="C16" s="2">
         <v>57486</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>58205</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>62058</v>
       </c>
@@ -599,8 +841,14 @@
       <c r="C17" s="2">
         <v>55335</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>58265</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>64445</v>
       </c>
@@ -610,8 +858,14 @@
       <c r="C18" s="2">
         <v>58205</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>59343</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>79983</v>
       </c>
@@ -621,8 +875,14 @@
       <c r="C19" s="2">
         <v>76595</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>60049</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>59172</v>
       </c>
@@ -632,8 +892,14 @@
       <c r="C20" s="2">
         <v>51449</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>60261</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>59356</v>
       </c>
@@ -643,8 +909,14 @@
       <c r="C21" s="2">
         <v>51630</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>60313</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>85583</v>
       </c>
@@ -654,8 +926,14 @@
       <c r="C22" s="2">
         <v>83327</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>60673</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>81761</v>
       </c>
@@ -665,8 +943,14 @@
       <c r="C23" s="2">
         <v>77333</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>61858</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>80142</v>
       </c>
@@ -676,8 +960,14 @@
       <c r="C24" s="2">
         <v>76759</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>64082</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>79147</v>
       </c>
@@ -687,8 +977,14 @@
       <c r="C25" s="2">
         <v>75637</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>64727</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>86889</v>
       </c>
@@ -698,8 +994,14 @@
       <c r="C26" s="2">
         <v>84435</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>64982</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>64491</v>
       </c>
@@ -709,8 +1011,14 @@
       <c r="C27" s="2">
         <v>58265</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>66597</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>74236</v>
       </c>
@@ -720,8 +1028,14 @@
       <c r="C28" s="2">
         <v>3721</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>68795</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>78156</v>
       </c>
@@ -731,8 +1045,14 @@
       <c r="C29" s="2">
         <v>74328</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>68943</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>88145</v>
       </c>
@@ -742,8 +1062,14 @@
       <c r="C30" s="2">
         <v>86368</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>70048</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>63590</v>
       </c>
@@ -753,8 +1079,14 @@
       <c r="C31" s="2">
         <v>57231</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>70831</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>75418</v>
       </c>
@@ -764,8 +1096,14 @@
       <c r="C32" s="2">
         <v>70831</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>70858</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>66016</v>
       </c>
@@ -775,8 +1113,14 @@
       <c r="C33" s="2">
         <v>60049</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>72938</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>85784</v>
       </c>
@@ -786,8 +1130,14 @@
       <c r="C34" s="2">
         <v>83570</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>73999</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>71908</v>
       </c>
@@ -797,8 +1147,14 @@
       <c r="C35" s="2">
         <v>66597</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>74328</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>70179</v>
       </c>
@@ -808,8 +1164,14 @@
       <c r="C36" s="2">
         <v>64727</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>75181</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>63828</v>
       </c>
@@ -819,8 +1181,14 @@
       <c r="C37" s="2">
         <v>57468</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>75637</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>69634</v>
       </c>
@@ -830,8 +1198,14 @@
       <c r="C38" s="2">
         <v>64082</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>76535</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>82411</v>
       </c>
@@ -841,8 +1215,14 @@
       <c r="C39" s="2">
         <v>79399</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>76595</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>58769</v>
       </c>
@@ -852,8 +1232,14 @@
       <c r="C40" s="2">
         <v>50896</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>76759</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>84854</v>
       </c>
@@ -863,8 +1249,14 @@
       <c r="C41" s="2">
         <v>82397</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>76980</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>77955</v>
       </c>
@@ -874,8 +1266,14 @@
       <c r="C42" s="2">
         <v>73999</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>77333</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>59683</v>
       </c>
@@ -885,8 +1283,14 @@
       <c r="C43" s="2">
         <v>52111</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>78499</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>73817</v>
       </c>
@@ -896,8 +1300,14 @@
       <c r="C44" s="2">
         <v>68943</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>78607</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>75440</v>
       </c>
@@ -907,8 +1317,14 @@
       <c r="C45" s="2">
         <v>70858</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>79399</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>59141</v>
       </c>
@@ -918,8 +1334,14 @@
       <c r="C46" s="2">
         <v>51403</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>79865</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>70403</v>
       </c>
@@ -929,8 +1351,14 @@
       <c r="C47" s="2">
         <v>64982</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>82397</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>66550</v>
       </c>
@@ -940,8 +1368,14 @@
       <c r="C48" s="2">
         <v>60673</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>83327</v>
+      </c>
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>65396</v>
       </c>
@@ -951,8 +1385,14 @@
       <c r="C49" s="2">
         <v>59343</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>83570</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>66389</v>
       </c>
@@ -962,8 +1402,14 @@
       <c r="C50" s="2">
         <v>10305</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>84435</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>78658</v>
       </c>
@@ -972,6 +1418,12 @@
       </c>
       <c r="C51" s="2">
         <v>75181</v>
+      </c>
+      <c r="D51">
+        <v>86368</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
